--- a/_db/thamkhao/dowes/ho_so_gia_cong_DEMO (1).xlsx
+++ b/_db/thamkhao/dowes/ho_so_gia_cong_DEMO (1).xlsx
@@ -1,10 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76810D0-C497-452E-894D-690542426225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-855" yWindow="435" windowWidth="14760" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="cđ 2 cánh" state="visible" r:id="rId4"/>
+    <sheet name="cđ 2 cánh" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -229,46 +233,46 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <family val="4"/>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="4"/>
     </font>
     <font>
       <b/>
-      <family val="4"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="4"/>
     </font>
     <font>
       <b/>
-      <family val="4"/>
       <sz val="18"/>
       <name val="Times New Roman"/>
+      <family val="4"/>
     </font>
     <font>
       <b/>
       <i/>
-      <family val="4"/>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="4"/>
     </font>
     <font>
       <b/>
       <i/>
-      <family val="4"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="4"/>
     </font>
   </fonts>
   <fills count="4">
@@ -280,12 +284,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="E1E1E1"/>
+        <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="fffa5d"/>
+        <fgColor rgb="FFFFFA5D"/>
       </patternFill>
     </fill>
   </fills>
@@ -298,48 +302,83 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -355,11 +394,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -400,7 +437,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -753,1150 +790,1186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" ht="25" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" ht="25" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" ht="25" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" ht="40" customHeight="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" ht="30" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" ht="30" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" ht="30" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" ht="30" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" ht="30" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" ht="30" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" ht="30" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" ht="30" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" ht="30" customHeight="1" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" ht="25" customHeight="1" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" s="6" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+    <row r="18" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>1</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="4">
         <v>1400</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="4">
         <v>1</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="4">
         <v>1.69</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="J18" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>2</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="4">
         <v>2100</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="4">
         <v>2</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="4">
         <v>5.08</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="J19" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>3</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="4">
         <v>655</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="4">
         <v>2</v>
       </c>
-      <c r="I20" s="8">
-        <v>2.01</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="I20" s="4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="4">
         <v>2049</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="4">
         <v>4</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="4">
         <v>12.56</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="J21" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>5</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="4">
         <v>523</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="4">
         <v>2</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="4">
         <v>2.38</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>6</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="J22" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="4">
         <v>1857</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="4">
         <v>4</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="4">
         <v>2.08</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="J23" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>7</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8">
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="4">
         <v>513</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="4">
         <v>2</v>
       </c>
-      <c r="I24" s="8">
-        <v>0.29</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="I24" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>8</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8">
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="4">
         <v>513</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="4">
         <v>2</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="4">
         <v>0.21</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="J25" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
         <v>9</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8">
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="4">
         <v>2013</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="4">
         <v>1</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="4">
         <v>1.84</v>
       </c>
-      <c r="J26" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="15" t="s">
+      <c r="J26" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="15">
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="8">
         <v>28.14</v>
       </c>
-      <c r="J27" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" ht="30" customHeight="1" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="J27" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-    </row>
-    <row r="29" ht="25" customHeight="1" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="1:10" s="6" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="J29" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+    <row r="30" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
         <v>1</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8">
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="4">
         <v>505</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="4">
         <v>1849</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="4">
         <v>2</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="4">
         <v>1.87</v>
       </c>
-      <c r="J30" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="15" t="s">
+      <c r="J30" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" s="15">
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="8">
         <v>1.87</v>
       </c>
-      <c r="J31" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" ht="30" customHeight="1" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="J31" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="33" ht="25" customHeight="1" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+    </row>
+    <row r="33" spans="1:10" s="6" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14" t="s">
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="I33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="J33" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+    <row r="34" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
         <v>1</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8" t="s">
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H34" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="8">
+      <c r="H34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="4">
         <v>18</v>
       </c>
-      <c r="J34" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="J34" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>2</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="8" t="s">
+      <c r="B35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8" t="s">
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="8">
+      <c r="H35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="4">
         <v>2</v>
       </c>
-      <c r="J35" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="J35" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
         <v>3</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8" t="s">
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H36" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="8">
+      <c r="H36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="4">
         <v>4</v>
       </c>
-      <c r="J36" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="J36" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
         <v>4</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8" t="s">
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H37" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37" s="8">
+      <c r="H37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="4">
         <v>1</v>
       </c>
-      <c r="J37" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="J37" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
         <v>5</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="8" t="s">
+      <c r="B38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8" t="s">
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H38" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" s="8">
+      <c r="H38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="4">
         <v>1</v>
       </c>
-      <c r="J38" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>6</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="8" t="s">
+      <c r="J38" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>6</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8" t="s">
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H39" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="8">
+      <c r="H39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="4">
         <v>1</v>
       </c>
-      <c r="J39" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="J39" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
         <v>7</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="8" t="s">
+      <c r="B40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8" t="s">
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" s="8">
+      <c r="H40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="4">
         <v>1</v>
       </c>
-      <c r="J40" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+      <c r="J40" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
         <v>8</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="8" t="s">
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8" t="s">
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H41" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" s="8">
+      <c r="H41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="4">
         <v>2</v>
       </c>
-      <c r="J41" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+      <c r="J41" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
         <v>9</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="8" t="s">
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8" t="s">
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H42" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I42" s="8">
+      <c r="H42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="4">
         <v>2</v>
       </c>
-      <c r="J42" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+      <c r="J42" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
         <v>10</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="8" t="s">
+      <c r="B43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8" t="s">
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" s="8">
+      <c r="H43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" s="4">
         <v>1</v>
       </c>
-      <c r="J43" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+      <c r="J43" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
         <v>11</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="8" t="s">
+      <c r="B44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8" t="s">
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H44" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I44" s="8">
+      <c r="H44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" s="4">
         <v>1</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+      <c r="J44" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
         <v>12</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="8" t="s">
+      <c r="B45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8" t="s">
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H45" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I45" s="8">
+      <c r="H45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="4">
         <v>1</v>
       </c>
-      <c r="J45" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="J45" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
         <v>13</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="8" t="s">
+      <c r="B46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8" t="s">
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H46" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I46" s="8">
+      <c r="H46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="4">
         <v>1</v>
       </c>
-      <c r="J46" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+      <c r="J46" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
         <v>14</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="8" t="s">
+      <c r="B47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8" t="s">
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H47" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I47" s="8">
-        <v>6</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" ht="30" customHeight="1" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="H47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" s="4">
+        <v>6</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-    </row>
-    <row r="49" ht="25" customHeight="1" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+    </row>
+    <row r="49" spans="1:10" s="6" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14" t="s">
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H49" s="14" t="s">
+      <c r="H49" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I49" s="14" t="s">
+      <c r="I49" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J49" s="14" t="s">
+      <c r="J49" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+    <row r="50" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
         <v>1</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="8" t="s">
+      <c r="B50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8" t="s">
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H50" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I50" s="8">
+      <c r="H50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="4">
         <v>1</v>
       </c>
-      <c r="J50" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" ht="40" customHeight="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
+      <c r="J50" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
         <v>2</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="8" t="s">
+      <c r="B51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8" t="s">
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H51" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I51" s="8">
+      <c r="H51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="4">
         <v>2.67</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="J51" s="4" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:J15"/>
     <mergeCell ref="A7:C7"/>
@@ -1908,45 +1981,14 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.3" top="0.3" bottom="0.3" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>